--- a/experiments/online/E5/P0/collect.xlsx
+++ b/experiments/online/E5/P0/collect.xlsx
@@ -417,13 +417,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -521,10 +515,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -770,13 +764,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1078,10 +1066,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1369,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <v>1.451388888888889</v>
+        <v>4.539583333333333</v>
       </c>
       <c r="C2" s="8">
         <f>C$4*(0.35)</f>
@@ -1404,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7">
-        <v>1.452083333333333</v>
+        <v>4.540277777777778</v>
       </c>
       <c r="C3" s="8">
         <f>C$4*(0.675)</f>
@@ -1439,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="7">
-        <v>1.452777777777778</v>
+        <v>4.540972222222222</v>
       </c>
       <c r="C4" s="15">
         <v>0.398</v>
@@ -1468,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="7">
-        <v>1.453472222222222</v>
+        <v>4.541666666666667</v>
       </c>
       <c r="C5" s="8">
         <f>C$4*(1.65152766308836)</f>

--- a/experiments/online/E5/P0/collect.xlsx
+++ b/experiments/online/E5/P0/collect.xlsx
@@ -46,7 +46,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="hh:mm:&quot;SS &quot;AM/PM"/>
+    <numFmt numFmtId="59" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="60" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3">
@@ -86,7 +86,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -148,7 +148,9 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -165,14 +167,25 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -184,6 +197,24 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -199,7 +230,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -230,22 +261,28 @@
     <xf numFmtId="60" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="60" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -254,8 +291,17 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1311,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1357,30 +1403,30 @@
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <v>4.539583333333333</v>
+        <v>6.548611111111111</v>
       </c>
       <c r="C2" s="8">
-        <f>C$4*(0.35)</f>
+        <f>C$6*(0.35)</f>
         <v>0.1393</v>
       </c>
       <c r="D2" s="9">
-        <f>D$4*(0.35)</f>
+        <f>D$6*(0.35)</f>
         <v>0.2667</v>
       </c>
       <c r="E2" s="10">
-        <f>E$4*(0.35)</f>
+        <f>E$6*(0.35)</f>
         <v>0.1134</v>
       </c>
       <c r="F2" s="10">
-        <f>F$4*(0.35)</f>
+        <f>F$6*(0.35)</f>
         <v>0</v>
       </c>
       <c r="G2" s="10">
-        <f>G$4*(0.35)</f>
+        <f>G$6*(0.35)</f>
         <v>0.1162</v>
       </c>
       <c r="H2" s="10">
-        <f>H$4*(0.35)</f>
+        <f>H$6*(0.35)</f>
         <v>0.2121</v>
       </c>
       <c r="I2" s="11">
@@ -1392,62 +1438,68 @@
         <v>0</v>
       </c>
       <c r="B3" s="7">
-        <v>4.540277777777778</v>
+        <v>6.549293981481481</v>
       </c>
       <c r="C3" s="8">
-        <f>C$4*(0.675)</f>
-        <v>0.26865</v>
-      </c>
-      <c r="D3" s="8">
-        <f>D$4*(0.675)</f>
-        <v>0.51435</v>
-      </c>
-      <c r="E3" s="8">
-        <f>E$4*(0.675)</f>
-        <v>0.2187</v>
-      </c>
-      <c r="F3" s="8">
-        <f>F$4*(0.675)</f>
+        <f>C$6*(0.35)</f>
+        <v>0.1393</v>
+      </c>
+      <c r="D3" s="13">
+        <f>D$6*(0.35)</f>
+        <v>0.2667</v>
+      </c>
+      <c r="E3" s="14">
+        <f>E$6*(0.35)</f>
+        <v>0.1134</v>
+      </c>
+      <c r="F3" s="14">
+        <f>F$6*(0.35)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="8">
-        <f>G$4*(0.675)</f>
-        <v>0.2241</v>
-      </c>
-      <c r="H3" s="8">
-        <f>H$4*(0.675)</f>
-        <v>0.40905</v>
-      </c>
-      <c r="I3" s="13">
+      <c r="G3" s="14">
+        <f>G$6*(0.35)</f>
+        <v>0.1162</v>
+      </c>
+      <c r="H3" s="14">
+        <f>H$6*(0.35)</f>
+        <v>0.2121</v>
+      </c>
+      <c r="I3" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>0</v>
       </c>
       <c r="B4" s="7">
-        <v>4.540972222222222</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0.398</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0.762</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0.324</v>
-      </c>
-      <c r="F4" s="16">
+        <v>6.549305555555556</v>
+      </c>
+      <c r="C4" s="8">
+        <f>C$6*(0.675)</f>
+        <v>0.26865</v>
+      </c>
+      <c r="D4" s="8">
+        <f>D$6*(0.675)</f>
+        <v>0.51435</v>
+      </c>
+      <c r="E4" s="8">
+        <f>E$6*(0.675)</f>
+        <v>0.2187</v>
+      </c>
+      <c r="F4" s="8">
+        <f>F$6*(0.675)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="16">
-        <v>0.332</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0.606</v>
-      </c>
-      <c r="I4" s="17">
+      <c r="G4" s="8">
+        <f>G$6*(0.675)</f>
+        <v>0.2241</v>
+      </c>
+      <c r="H4" s="8">
+        <f>H$6*(0.675)</f>
+        <v>0.40905</v>
+      </c>
+      <c r="I4" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1456,90 +1508,207 @@
         <v>0</v>
       </c>
       <c r="B5" s="7">
-        <v>4.541666666666667</v>
+        <v>6.549988425925926</v>
       </c>
       <c r="C5" s="8">
-        <f>C$4*(1.65152766308836)</f>
-        <v>0.657308009909167</v>
+        <f>C$6*(0.675)</f>
+        <v>0.26865</v>
       </c>
       <c r="D5" s="8">
-        <f>D$4*(1.65152766308836)</f>
-        <v>1.25846407927333</v>
+        <f>D$6*(0.675)</f>
+        <v>0.51435</v>
       </c>
       <c r="E5" s="8">
-        <f>E$4*(1.65152766308836)</f>
-        <v>0.535094962840629</v>
+        <f>E$6*(0.675)</f>
+        <v>0.2187</v>
       </c>
       <c r="F5" s="8">
-        <f>F$4*(1.65152766308836)</f>
+        <f>F$6*(0.675)</f>
         <v>0</v>
       </c>
       <c r="G5" s="8">
-        <f>G$4*(1.65152766308836)</f>
-        <v>0.548307184145336</v>
+        <f>G$6*(0.675)</f>
+        <v>0.2241</v>
       </c>
       <c r="H5" s="8">
-        <f>H$4*(1.65152766308836)</f>
-        <v>1.00082576383155</v>
-      </c>
-      <c r="I5" s="13">
+        <f>H$6*(0.675)</f>
+        <v>0.40905</v>
+      </c>
+      <c r="I5" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="A6" s="12">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7">
+        <v>6.55</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.398</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.762</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.324</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.332</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.606</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="A7" s="12">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6.550682870370371</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.398</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.762</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.324</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.332</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.606</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="A8" s="12">
+        <v>0</v>
+      </c>
+      <c r="B8" s="7">
+        <v>6.550694444444445</v>
+      </c>
+      <c r="C8" s="8">
+        <f>C$6*(1.65152766308836)</f>
+        <v>0.657308009909167</v>
+      </c>
+      <c r="D8" s="8">
+        <f>D$6*(1.65152766308836)</f>
+        <v>1.25846407927333</v>
+      </c>
+      <c r="E8" s="8">
+        <f>E$6*(1.65152766308836)</f>
+        <v>0.535094962840629</v>
+      </c>
+      <c r="F8" s="8">
+        <f>F$6*(1.65152766308836)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <f>G$6*(1.65152766308836)</f>
+        <v>0.548307184145336</v>
+      </c>
+      <c r="H8" s="8">
+        <f>H$6*(1.65152766308836)</f>
+        <v>1.00082576383155</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="A9" s="20">
+        <v>0</v>
+      </c>
+      <c r="B9" s="21">
+        <v>6.551377314814815</v>
+      </c>
+      <c r="C9" s="22">
+        <f>C$6*(1.65152766308836)</f>
+        <v>0.657308009909167</v>
+      </c>
+      <c r="D9" s="22">
+        <f>D$6*(1.65152766308836)</f>
+        <v>1.25846407927333</v>
+      </c>
+      <c r="E9" s="22">
+        <f>E$6*(1.65152766308836)</f>
+        <v>0.535094962840629</v>
+      </c>
+      <c r="F9" s="22">
+        <f>F$6*(1.65152766308836)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
+        <f>G$6*(1.65152766308836)</f>
+        <v>0.548307184145336</v>
+      </c>
+      <c r="H9" s="22">
+        <f>H$6*(1.65152766308836)</f>
+        <v>1.00082576383155</v>
+      </c>
+      <c r="I9" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>

--- a/experiments/online/E5/P0/collect.xlsx
+++ b/experiments/online/E5/P0/collect.xlsx
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <v>6.548611111111111</v>
+        <v>8.668749999999999</v>
       </c>
       <c r="C2" s="8">
         <f>C$6*(0.35)</f>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7">
-        <v>6.549293981481481</v>
+        <v>8.66943287037037</v>
       </c>
       <c r="C3" s="8">
         <f>C$6*(0.35)</f>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="7">
-        <v>6.549305555555556</v>
+        <v>8.669444444444444</v>
       </c>
       <c r="C4" s="8">
         <f>C$6*(0.675)</f>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="7">
-        <v>6.549988425925926</v>
+        <v>8.670127314814815</v>
       </c>
       <c r="C5" s="8">
         <f>C$6*(0.675)</f>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="7">
-        <v>6.55</v>
+        <v>8.670138888888889</v>
       </c>
       <c r="C6" s="17">
         <v>0.398</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="7">
-        <v>6.550682870370371</v>
+        <v>8.67082175925926</v>
       </c>
       <c r="C7" s="17">
         <v>0.398</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="7">
-        <v>6.550694444444445</v>
+        <v>8.670833333333333</v>
       </c>
       <c r="C8" s="8">
         <f>C$6*(1.65152766308836)</f>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="21">
-        <v>6.551377314814815</v>
+        <v>8.671516203703703</v>
       </c>
       <c r="C9" s="22">
         <f>C$6*(1.65152766308836)</f>
